--- a/fuentes/contenidos/grado10/guion04/EscaletaCN_10_04F.xlsx
+++ b/fuentes/contenidos/grado10/guion04/EscaletaCN_10_04F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="1300" windowWidth="19800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="283">
   <si>
     <t>Asignatura</t>
   </si>
@@ -711,9 +711,6 @@
   </si>
   <si>
     <t>Aplica las leyes de Newton</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: las leyes de Newton</t>
   </si>
   <si>
     <t>Actividad que permite aplicar las leyes de Newton</t>
@@ -1290,6 +1287,20 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1358,20 +1369,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="149">
@@ -1842,9 +1839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1872,94 +1869,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="34"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
@@ -1978,7 +1975,7 @@
         <v>131</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="32" t="s">
         <v>125</v>
       </c>
       <c r="H3" s="21">
@@ -1987,7 +1984,7 @@
       <c r="I3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="31" t="s">
         <v>126</v>
       </c>
       <c r="K3" s="23" t="s">
@@ -2037,7 +2034,7 @@
         <v>131</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="32" t="s">
         <v>134</v>
       </c>
       <c r="H4" s="21">
@@ -2046,7 +2043,7 @@
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="31" t="s">
         <v>132</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -2096,7 +2093,7 @@
         <v>136</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="32" t="s">
         <v>140</v>
       </c>
       <c r="H5" s="21">
@@ -2105,7 +2102,7 @@
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="31" t="s">
         <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -2157,7 +2154,7 @@
         <v>141</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="32" t="s">
         <v>143</v>
       </c>
       <c r="H6" s="21">
@@ -2166,7 +2163,7 @@
       <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="31" t="s">
         <v>144</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -2216,7 +2213,7 @@
         <v>141</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="32" t="s">
         <v>147</v>
       </c>
       <c r="H7" s="21">
@@ -2225,7 +2222,7 @@
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="31" t="s">
         <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -2273,7 +2270,7 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="32" t="s">
         <v>153</v>
       </c>
       <c r="H8" s="21">
@@ -2282,7 +2279,7 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="31" t="s">
         <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -2330,7 +2327,7 @@
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="32" t="s">
         <v>156</v>
       </c>
       <c r="H9" s="21">
@@ -2339,7 +2336,7 @@
       <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="31" t="s">
         <v>155</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -2389,7 +2386,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="32" t="s">
         <v>159</v>
       </c>
       <c r="H10" s="21">
@@ -2398,7 +2395,7 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="31" t="s">
         <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -2448,7 +2445,7 @@
         <v>157</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="32" t="s">
         <v>161</v>
       </c>
       <c r="H11" s="21">
@@ -2457,8 +2454,8 @@
       <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="54" t="s">
-        <v>278</v>
+      <c r="J11" s="31" t="s">
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2507,7 +2504,7 @@
         <v>157</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="32" t="s">
         <v>162</v>
       </c>
       <c r="H12" s="21">
@@ -2516,7 +2513,7 @@
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="31" t="s">
         <v>163</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -2566,7 +2563,7 @@
         <v>157</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="32" t="s">
         <v>164</v>
       </c>
       <c r="H13" s="21">
@@ -2575,7 +2572,7 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="31" t="s">
         <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -2625,7 +2622,7 @@
         <v>167</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="32" t="s">
         <v>168</v>
       </c>
       <c r="H14" s="21">
@@ -2634,7 +2631,7 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="31" t="s">
         <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -2684,7 +2681,7 @@
         <v>167</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="32" t="s">
         <v>171</v>
       </c>
       <c r="H15" s="21">
@@ -2693,7 +2690,7 @@
       <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="31" t="s">
         <v>172</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2743,7 +2740,7 @@
         <v>141</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="32" t="s">
         <v>180</v>
       </c>
       <c r="H16" s="21">
@@ -2752,7 +2749,7 @@
       <c r="I16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="31" t="s">
         <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2769,7 +2766,7 @@
       <c r="P16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="33">
         <v>10</v>
       </c>
       <c r="R16" s="11" t="s">
@@ -2802,7 +2799,7 @@
         <v>141</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="32" t="s">
         <v>181</v>
       </c>
       <c r="H17" s="21">
@@ -2811,7 +2808,7 @@
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="31" t="s">
         <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -2861,7 +2858,7 @@
         <v>141</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="32" t="s">
         <v>183</v>
       </c>
       <c r="H18" s="21">
@@ -2870,7 +2867,7 @@
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="31" t="s">
         <v>184</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2920,7 +2917,7 @@
         <v>141</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="32" t="s">
         <v>187</v>
       </c>
       <c r="H19" s="21">
@@ -2929,7 +2926,7 @@
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="31" t="s">
         <v>188</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2979,7 +2976,7 @@
         <v>141</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="32" t="s">
         <v>189</v>
       </c>
       <c r="H20" s="21">
@@ -2988,7 +2985,7 @@
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="31" t="s">
         <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -3038,7 +3035,7 @@
         <v>193</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="32" t="s">
         <v>194</v>
       </c>
       <c r="H21" s="21">
@@ -3047,7 +3044,7 @@
       <c r="I21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="31" t="s">
         <v>195</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -3097,8 +3094,8 @@
         <v>193</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="55" t="s">
-        <v>276</v>
+      <c r="G22" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="H22" s="21">
         <v>20</v>
@@ -3106,8 +3103,8 @@
       <c r="I22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="54" t="s">
-        <v>277</v>
+      <c r="J22" s="31" t="s">
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -3133,7 +3130,7 @@
         <v>196</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U22" s="10" t="s">
         <v>197</v>
@@ -3156,7 +3153,7 @@
         <v>198</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="32" t="s">
         <v>199</v>
       </c>
       <c r="H23" s="21">
@@ -3165,7 +3162,7 @@
       <c r="I23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="31" t="s">
         <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -3176,7 +3173,7 @@
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="57" t="s">
+      <c r="O23" s="34" t="s">
         <v>135</v>
       </c>
       <c r="P23" s="9" t="s">
@@ -3215,7 +3212,7 @@
         <v>198</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="32" t="s">
         <v>201</v>
       </c>
       <c r="H24" s="21">
@@ -3224,7 +3221,7 @@
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="54" t="s">
+      <c r="J24" s="31" t="s">
         <v>202</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -3274,7 +3271,7 @@
         <v>204</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="32" t="s">
         <v>205</v>
       </c>
       <c r="H25" s="21">
@@ -3283,7 +3280,7 @@
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="54" t="s">
+      <c r="J25" s="31" t="s">
         <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -3294,7 +3291,7 @@
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="57" t="s">
+      <c r="O25" s="34" t="s">
         <v>135</v>
       </c>
       <c r="P25" s="9" t="s">
@@ -3333,7 +3330,7 @@
         <v>204</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="32" t="s">
         <v>208</v>
       </c>
       <c r="H26" s="21">
@@ -3342,7 +3339,7 @@
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="31" t="s">
         <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -3392,7 +3389,7 @@
         <v>141</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="32" t="s">
         <v>210</v>
       </c>
       <c r="H27" s="21">
@@ -3401,7 +3398,7 @@
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="31" t="s">
         <v>212</v>
       </c>
       <c r="K27" s="7" t="s">
@@ -3451,7 +3448,7 @@
         <v>141</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="32" t="s">
         <v>213</v>
       </c>
       <c r="H28" s="21">
@@ -3460,7 +3457,7 @@
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="31" t="s">
         <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
@@ -3510,7 +3507,7 @@
         <v>216</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="32" t="s">
         <v>217</v>
       </c>
       <c r="H29" s="21">
@@ -3519,7 +3516,7 @@
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="54" t="s">
+      <c r="J29" s="31" t="s">
         <v>217</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -3569,7 +3566,7 @@
         <v>218</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="32" t="s">
         <v>219</v>
       </c>
       <c r="H30" s="21">
@@ -3578,7 +3575,7 @@
       <c r="I30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="31" t="s">
         <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -3628,7 +3625,7 @@
         <v>218</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="32" t="s">
         <v>222</v>
       </c>
       <c r="H31" s="21">
@@ -3637,7 +3634,7 @@
       <c r="I31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="54" t="s">
+      <c r="J31" s="31" t="s">
         <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -3689,7 +3686,7 @@
         <v>218</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="32" t="s">
         <v>225</v>
       </c>
       <c r="H32" s="21">
@@ -3698,7 +3695,7 @@
       <c r="I32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="31" t="s">
         <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -3748,8 +3745,8 @@
         <v>141</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="55" t="s">
-        <v>228</v>
+      <c r="G33" s="32" t="s">
+        <v>229</v>
       </c>
       <c r="H33" s="21">
         <v>31</v>
@@ -3757,8 +3754,8 @@
       <c r="I33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="54" t="s">
-        <v>229</v>
+      <c r="J33" s="31" t="s">
+        <v>228</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
@@ -3784,7 +3781,7 @@
         <v>196</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U33" s="10" t="s">
         <v>197</v>
@@ -3801,12 +3798,12 @@
         <v>123</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="55" t="s">
-        <v>232</v>
+      <c r="G34" s="32" t="s">
+        <v>231</v>
       </c>
       <c r="H34" s="21">
         <v>32</v>
@@ -3814,8 +3811,8 @@
       <c r="I34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="54" t="s">
-        <v>233</v>
+      <c r="J34" s="31" t="s">
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
@@ -3841,7 +3838,7 @@
         <v>196</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U34" s="10" t="s">
         <v>197</v>
@@ -3858,14 +3855,14 @@
         <v>123</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>141</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="55" t="s">
-        <v>235</v>
+      <c r="G35" s="32" t="s">
+        <v>234</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
@@ -3873,8 +3870,8 @@
       <c r="I35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="54" t="s">
-        <v>236</v>
+      <c r="J35" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -3887,7 +3884,7 @@
         <v>52</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P35" s="9" t="s">
         <v>19</v>
@@ -3902,7 +3899,7 @@
         <v>196</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U35" s="10" t="s">
         <v>197</v>
@@ -3919,12 +3916,12 @@
         <v>123</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="55" t="s">
-        <v>238</v>
+      <c r="G36" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="H36" s="21">
         <v>34</v>
@@ -3932,8 +3929,8 @@
       <c r="I36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="54" t="s">
-        <v>239</v>
+      <c r="J36" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
@@ -3959,7 +3956,7 @@
         <v>129</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U36" s="10" t="s">
         <v>130</v>
@@ -3976,14 +3973,14 @@
         <v>123</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="32" t="s">
         <v>241</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="55" t="s">
-        <v>242</v>
       </c>
       <c r="H37" s="21">
         <v>35</v>
@@ -3991,8 +3988,8 @@
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="54" t="s">
-        <v>243</v>
+      <c r="J37" s="31" t="s">
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>19</v>
@@ -4018,7 +4015,7 @@
         <v>129</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U37" s="10" t="s">
         <v>130</v>
@@ -4035,16 +4032,16 @@
         <v>123</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="F38" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="G38" s="55" t="s">
-        <v>245</v>
       </c>
       <c r="H38" s="21">
         <v>36</v>
@@ -4052,8 +4049,8 @@
       <c r="I38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="54" t="s">
-        <v>246</v>
+      <c r="J38" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>19</v>
@@ -4063,7 +4060,7 @@
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="57" t="s">
+      <c r="O38" s="34" t="s">
         <v>135</v>
       </c>
       <c r="P38" s="9" t="s">
@@ -4079,7 +4076,7 @@
         <v>129</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U38" s="10" t="s">
         <v>130</v>
@@ -4096,14 +4093,14 @@
         <v>123</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>141</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="55" t="s">
-        <v>248</v>
+      <c r="G39" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="H39" s="21">
         <v>37</v>
@@ -4111,8 +4108,8 @@
       <c r="I39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="54" t="s">
-        <v>249</v>
+      <c r="J39" s="31" t="s">
+        <v>248</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>19</v>
@@ -4138,7 +4135,7 @@
         <v>129</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U39" s="10" t="s">
         <v>130</v>
@@ -4155,14 +4152,14 @@
         <v>123</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>141</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="55" t="s">
-        <v>251</v>
+      <c r="G40" s="32" t="s">
+        <v>250</v>
       </c>
       <c r="H40" s="21">
         <v>38</v>
@@ -4170,8 +4167,8 @@
       <c r="I40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="54" t="s">
-        <v>252</v>
+      <c r="J40" s="31" t="s">
+        <v>251</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>19</v>
@@ -4197,7 +4194,7 @@
         <v>129</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U40" s="10" t="s">
         <v>130</v>
@@ -4214,12 +4211,12 @@
         <v>123</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="55" t="s">
-        <v>255</v>
+      <c r="G41" s="32" t="s">
+        <v>254</v>
       </c>
       <c r="H41" s="21">
         <v>39</v>
@@ -4227,8 +4224,8 @@
       <c r="I41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="54" t="s">
-        <v>256</v>
+      <c r="J41" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>19</v>
@@ -4254,7 +4251,7 @@
         <v>129</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U41" s="10" t="s">
         <v>130</v>
@@ -4271,12 +4268,12 @@
         <v>123</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="55" t="s">
-        <v>257</v>
+      <c r="G42" s="32" t="s">
+        <v>256</v>
       </c>
       <c r="H42" s="21">
         <v>40</v>
@@ -4284,8 +4281,8 @@
       <c r="I42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="54" t="s">
-        <v>258</v>
+      <c r="J42" s="31" t="s">
+        <v>257</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>19</v>
@@ -4311,7 +4308,7 @@
         <v>129</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U42" s="10" t="s">
         <v>130</v>
@@ -4328,12 +4325,12 @@
         <v>123</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E43" s="19"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="55" t="s">
-        <v>259</v>
+      <c r="G43" s="32" t="s">
+        <v>258</v>
       </c>
       <c r="H43" s="21">
         <v>41</v>
@@ -4341,8 +4338,8 @@
       <c r="I43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="54" t="s">
-        <v>260</v>
+      <c r="J43" s="31" t="s">
+        <v>259</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>19</v>
@@ -4368,7 +4365,7 @@
         <v>149</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U43" s="10" t="s">
         <v>151</v>
@@ -4385,12 +4382,12 @@
         <v>123</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="55" t="s">
-        <v>262</v>
+      <c r="G44" s="32" t="s">
+        <v>261</v>
       </c>
       <c r="H44" s="21">
         <v>42</v>
@@ -4398,8 +4395,8 @@
       <c r="I44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="54" t="s">
-        <v>263</v>
+      <c r="J44" s="31" t="s">
+        <v>262</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>19</v>
@@ -4425,7 +4422,7 @@
         <v>129</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U44" s="10" t="s">
         <v>130</v>
@@ -4442,11 +4439,11 @@
         <v>123</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H45" s="21">
@@ -4455,8 +4452,8 @@
       <c r="I45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="59" t="s">
-        <v>266</v>
+      <c r="J45" s="36" t="s">
+        <v>265</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>20</v>
@@ -4467,7 +4464,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="57" t="s">
+      <c r="P45" s="34" t="s">
         <v>19</v>
       </c>
       <c r="Q45" s="10"/>
@@ -4487,12 +4484,12 @@
         <v>123</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="55" t="s">
-        <v>267</v>
+      <c r="G46" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="H46" s="21">
         <v>44</v>
@@ -4500,8 +4497,8 @@
       <c r="I46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="54" t="s">
-        <v>268</v>
+      <c r="J46" s="31" t="s">
+        <v>267</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>19</v>
@@ -4527,7 +4524,7 @@
         <v>129</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U46" s="10" t="s">
         <v>130</v>
@@ -4544,12 +4541,12 @@
         <v>123</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="55" t="s">
-        <v>267</v>
+      <c r="G47" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="H47" s="21">
         <v>45</v>
@@ -4557,8 +4554,8 @@
       <c r="I47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="54" t="s">
-        <v>269</v>
+      <c r="J47" s="31" t="s">
+        <v>268</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>19</v>
@@ -4584,7 +4581,7 @@
         <v>149</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U47" s="10" t="s">
         <v>151</v>
@@ -4601,12 +4598,12 @@
         <v>123</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="55" t="s">
-        <v>267</v>
+      <c r="G48" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="H48" s="21">
         <v>46</v>
@@ -4614,8 +4611,8 @@
       <c r="I48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="54" t="s">
-        <v>270</v>
+      <c r="J48" s="31" t="s">
+        <v>269</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>19</v>
@@ -4628,7 +4625,7 @@
         <v>32</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P48" s="9" t="s">
         <v>20</v>
@@ -4643,7 +4640,7 @@
         <v>196</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>197</v>
@@ -4660,12 +4657,12 @@
         <v>123</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="55" t="s">
-        <v>267</v>
+      <c r="G49" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="H49" s="21">
         <v>47</v>
@@ -4673,8 +4670,8 @@
       <c r="I49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="54" t="s">
-        <v>272</v>
+      <c r="J49" s="31" t="s">
+        <v>271</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>19</v>
@@ -4717,12 +4714,12 @@
         <v>123</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="55" t="s">
-        <v>267</v>
+      <c r="G50" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="H50" s="21">
         <v>48</v>
@@ -4730,8 +4727,8 @@
       <c r="I50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J50" s="54" t="s">
-        <v>273</v>
+      <c r="J50" s="31" t="s">
+        <v>272</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>19</v>
@@ -4757,7 +4754,7 @@
         <v>196</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U50" s="10" t="s">
         <v>197</v>
@@ -4774,12 +4771,12 @@
         <v>123</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="55" t="s">
-        <v>267</v>
+      <c r="G51" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="H51" s="21">
         <v>49</v>
@@ -4787,8 +4784,8 @@
       <c r="I51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="54" t="s">
-        <v>279</v>
+      <c r="J51" s="31" t="s">
+        <v>278</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>19</v>
@@ -4814,7 +4811,7 @@
         <v>196</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U51" s="10" t="s">
         <v>197</v>
@@ -4831,12 +4828,12 @@
         <v>123</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="55" t="s">
-        <v>281</v>
+      <c r="G52" s="32" t="s">
+        <v>280</v>
       </c>
       <c r="H52" s="21">
         <v>50</v>
@@ -4844,8 +4841,8 @@
       <c r="I52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="54" t="s">
-        <v>282</v>
+      <c r="J52" s="31" t="s">
+        <v>281</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>20</v>
@@ -4871,7 +4868,7 @@
         <v>176</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U52" s="10" t="s">
         <v>177</v>

--- a/fuentes/contenidos/grado10/guion04/EscaletaCN_10_04F.xlsx
+++ b/fuentes/contenidos/grado10/guion04/EscaletaCN_10_04F.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14475"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$52</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -1301,34 +1306,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,6 +1355,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,7 +1541,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja2"/>
@@ -1840,125 +1845,125 @@
   <dimension ref="A1:U284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="80.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="105.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="40.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="105.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" customWidth="1"/>
+    <col min="15" max="15" width="40.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="49.33203125" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49.28515625" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="52"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="40"/>
-    </row>
-    <row r="3" spans="1:21" ht="16" thickTop="1">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -2017,7 +2022,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2081,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -2137,7 +2142,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -2255,7 +2260,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2369,7 +2374,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2487,7 +2492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2605,7 +2610,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2782,7 +2787,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2900,7 +2905,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2959,7 +2964,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -3077,7 +3082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -3195,7 +3200,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -3254,7 +3259,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -3372,7 +3377,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3431,7 +3436,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15">
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15">
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3608,7 +3613,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15">
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3669,7 +3674,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>17</v>
       </c>
@@ -3728,7 +3733,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>17</v>
       </c>
@@ -3787,7 +3792,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15">
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15">
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
@@ -3905,7 +3910,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15">
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>17</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>17</v>
       </c>
@@ -4021,7 +4026,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>17</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15">
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>17</v>
       </c>
@@ -4141,7 +4146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>17</v>
       </c>
@@ -4200,7 +4205,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>17</v>
       </c>
@@ -4257,7 +4262,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15">
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>17</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15">
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>17</v>
       </c>
@@ -4371,7 +4376,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15">
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>17</v>
       </c>
@@ -4428,7 +4433,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15">
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>17</v>
       </c>
@@ -4473,7 +4478,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15">
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>17</v>
       </c>
@@ -4530,7 +4535,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15">
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>17</v>
       </c>
@@ -4587,7 +4592,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15">
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>17</v>
       </c>
@@ -4646,7 +4651,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15">
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>17</v>
       </c>
@@ -4703,7 +4708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15">
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>17</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15">
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>17</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15">
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>17</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15">
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4897,7 +4902,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15">
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4920,7 +4925,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15">
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4943,7 +4948,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15">
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4966,7 +4971,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15">
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4989,7 +4994,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -5012,7 +5017,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15">
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -5035,7 +5040,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15">
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -5058,7 +5063,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15">
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5081,7 +5086,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5104,7 +5109,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5127,7 +5132,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5150,7 +5155,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15">
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5173,7 +5178,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -5196,7 +5201,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -5219,7 +5224,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -5242,7 +5247,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15">
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -5265,7 +5270,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15">
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -5288,372 +5293,378 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="72" spans="1:21" hidden="1"/>
-    <row r="73" spans="1:21" hidden="1"/>
-    <row r="74" spans="1:21" hidden="1"/>
-    <row r="75" spans="1:21" hidden="1"/>
-    <row r="76" spans="1:21" hidden="1"/>
-    <row r="77" spans="1:21" hidden="1"/>
-    <row r="78" spans="1:21" hidden="1"/>
-    <row r="79" spans="1:21" hidden="1"/>
-    <row r="80" spans="1:21" hidden="1"/>
-    <row r="81" spans="1:1" hidden="1"/>
-    <row r="82" spans="1:1" hidden="1"/>
-    <row r="83" spans="1:1" hidden="1"/>
-    <row r="84" spans="1:1" hidden="1"/>
-    <row r="85" spans="1:1" hidden="1">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1"/>
-    <row r="123" spans="1:1" hidden="1"/>
-    <row r="124" spans="1:1" hidden="1"/>
-    <row r="125" spans="1:1" hidden="1"/>
-    <row r="126" spans="1:1" hidden="1"/>
-    <row r="127" spans="1:1" hidden="1"/>
-    <row r="128" spans="1:1" hidden="1"/>
-    <row r="129" hidden="1"/>
-    <row r="130" hidden="1"/>
-    <row r="131" hidden="1"/>
-    <row r="132" hidden="1"/>
-    <row r="133" hidden="1"/>
-    <row r="134" hidden="1"/>
-    <row r="135" hidden="1"/>
-    <row r="136" hidden="1"/>
-    <row r="137" hidden="1"/>
-    <row r="138" hidden="1"/>
-    <row r="139" hidden="1"/>
-    <row r="140" hidden="1"/>
-    <row r="141" hidden="1"/>
-    <row r="142" hidden="1"/>
-    <row r="143" hidden="1"/>
-    <row r="144" hidden="1"/>
-    <row r="145" hidden="1"/>
-    <row r="146" hidden="1"/>
-    <row r="147" hidden="1"/>
-    <row r="148" hidden="1"/>
-    <row r="149" hidden="1"/>
-    <row r="150" hidden="1"/>
-    <row r="151" hidden="1"/>
-    <row r="152" hidden="1"/>
-    <row r="153" hidden="1"/>
-    <row r="154" hidden="1"/>
-    <row r="155" hidden="1"/>
-    <row r="156" hidden="1"/>
-    <row r="157" hidden="1"/>
-    <row r="158" hidden="1"/>
-    <row r="159" hidden="1"/>
-    <row r="160" hidden="1"/>
-    <row r="161" hidden="1"/>
-    <row r="162" hidden="1"/>
-    <row r="163" hidden="1"/>
-    <row r="164" hidden="1"/>
-    <row r="165" hidden="1"/>
-    <row r="166" hidden="1"/>
-    <row r="167" hidden="1"/>
-    <row r="168" hidden="1"/>
-    <row r="169" hidden="1"/>
-    <row r="170" hidden="1"/>
-    <row r="171" hidden="1"/>
-    <row r="172" hidden="1"/>
-    <row r="173" hidden="1"/>
-    <row r="174" hidden="1"/>
-    <row r="175" hidden="1"/>
-    <row r="176" hidden="1"/>
-    <row r="177" hidden="1"/>
-    <row r="178" hidden="1"/>
-    <row r="179" hidden="1"/>
-    <row r="180" hidden="1"/>
-    <row r="181" hidden="1"/>
-    <row r="182" hidden="1"/>
-    <row r="183" hidden="1"/>
-    <row r="184" hidden="1"/>
-    <row r="185" hidden="1"/>
-    <row r="186" hidden="1"/>
-    <row r="187" hidden="1"/>
-    <row r="188" hidden="1"/>
-    <row r="189" hidden="1"/>
-    <row r="190" hidden="1"/>
-    <row r="191" hidden="1"/>
-    <row r="192" hidden="1"/>
-    <row r="193" hidden="1"/>
-    <row r="194" hidden="1"/>
-    <row r="195" hidden="1"/>
-    <row r="196" hidden="1"/>
-    <row r="197" hidden="1"/>
-    <row r="198" hidden="1"/>
-    <row r="199" hidden="1"/>
-    <row r="200" hidden="1"/>
-    <row r="201" hidden="1"/>
-    <row r="202" hidden="1"/>
-    <row r="203" hidden="1"/>
-    <row r="204" hidden="1"/>
-    <row r="205" hidden="1"/>
-    <row r="206" hidden="1"/>
-    <row r="207" hidden="1"/>
-    <row r="208" hidden="1"/>
-    <row r="209" hidden="1"/>
-    <row r="210" hidden="1"/>
-    <row r="211" hidden="1"/>
-    <row r="212" hidden="1"/>
-    <row r="213" hidden="1"/>
-    <row r="214" hidden="1"/>
-    <row r="215" hidden="1"/>
-    <row r="216" hidden="1"/>
-    <row r="217" hidden="1"/>
-    <row r="218" hidden="1"/>
-    <row r="219" hidden="1"/>
-    <row r="220" hidden="1"/>
-    <row r="221" hidden="1"/>
-    <row r="222" hidden="1"/>
-    <row r="223" hidden="1"/>
-    <row r="224" hidden="1"/>
-    <row r="225" hidden="1"/>
-    <row r="226" hidden="1"/>
-    <row r="227" hidden="1"/>
-    <row r="228" hidden="1"/>
-    <row r="229" hidden="1"/>
-    <row r="230" hidden="1"/>
-    <row r="231" hidden="1"/>
-    <row r="232" hidden="1"/>
-    <row r="233" hidden="1"/>
-    <row r="234" hidden="1"/>
-    <row r="235" hidden="1"/>
-    <row r="236" hidden="1"/>
-    <row r="237" hidden="1"/>
-    <row r="238" hidden="1"/>
-    <row r="239" hidden="1"/>
-    <row r="240" hidden="1"/>
-    <row r="241" hidden="1"/>
-    <row r="242" hidden="1"/>
-    <row r="243" hidden="1"/>
-    <row r="244" hidden="1"/>
-    <row r="245" hidden="1"/>
-    <row r="246" hidden="1"/>
-    <row r="247" hidden="1"/>
-    <row r="248" hidden="1"/>
-    <row r="249" hidden="1"/>
-    <row r="250" hidden="1"/>
-    <row r="251" hidden="1"/>
-    <row r="252" hidden="1"/>
-    <row r="253" hidden="1"/>
-    <row r="254" hidden="1"/>
-    <row r="255" hidden="1"/>
-    <row r="256" hidden="1"/>
-    <row r="257" hidden="1"/>
-    <row r="258" hidden="1"/>
-    <row r="259" hidden="1"/>
-    <row r="260" hidden="1"/>
-    <row r="261" hidden="1"/>
-    <row r="262" hidden="1"/>
-    <row r="263" hidden="1"/>
-    <row r="264" hidden="1"/>
-    <row r="265" hidden="1"/>
-    <row r="266" hidden="1"/>
-    <row r="267" hidden="1"/>
-    <row r="268" hidden="1"/>
-    <row r="269" hidden="1"/>
-    <row r="270" hidden="1"/>
-    <row r="271" hidden="1"/>
-    <row r="272" hidden="1"/>
-    <row r="273" hidden="1"/>
-    <row r="274" hidden="1"/>
-    <row r="275" hidden="1"/>
-    <row r="276" hidden="1"/>
-    <row r="277" hidden="1"/>
-    <row r="278" hidden="1"/>
-    <row r="279" hidden="1"/>
-    <row r="280" hidden="1"/>
-    <row r="281" hidden="1"/>
-    <row r="282" hidden="1"/>
-    <row r="283" hidden="1"/>
-    <row r="284" hidden="1"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
+  <autoFilter ref="A1:U52">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5668,12 +5679,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5739,27 +5744,27 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="2"/>
-    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.33203125" style="2"/>
+    <col min="13" max="13" width="11.28515625" style="2"/>
+    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5776,7 +5781,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -5800,7 +5805,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5819,7 +5824,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5838,7 +5843,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5854,7 +5859,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5871,7 +5876,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5888,7 +5893,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5903,7 +5908,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5918,7 +5923,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5933,7 +5938,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5948,7 +5953,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5963,7 +5968,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5978,7 +5983,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5993,7 +5998,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6008,7 +6013,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6023,7 +6028,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -6037,7 +6042,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -6051,7 +6056,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -6065,7 +6070,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -6079,7 +6084,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6094,7 +6099,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6109,7 +6114,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6124,7 +6129,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6139,7 +6144,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6154,7 +6159,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6169,7 +6174,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6184,7 +6189,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6199,7 +6204,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6214,7 +6219,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6229,7 +6234,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -6244,7 +6249,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6259,7 +6264,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6274,7 +6279,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6289,7 +6294,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6304,7 +6309,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6319,7 +6324,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6334,7 +6339,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -6349,7 +6354,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6364,7 +6369,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -6379,7 +6384,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6394,7 +6399,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -6409,7 +6414,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6424,7 +6429,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6439,7 +6444,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6454,7 +6459,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6469,7 +6474,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6484,7 +6489,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -6499,7 +6504,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6511,7 +6516,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6523,7 +6528,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6536,7 +6541,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -6549,7 +6554,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6562,7 +6567,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -6575,7 +6580,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -6588,7 +6593,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -6601,7 +6606,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6614,7 +6619,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6627,7 +6632,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6640,7 +6645,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6653,7 +6658,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6666,7 +6671,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6679,7 +6684,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6692,7 +6697,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6705,7 +6710,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6718,7 +6723,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6731,7 +6736,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6744,7 +6749,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6757,7 +6762,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6770,7 +6775,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6783,7 +6788,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6797,7 +6802,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6811,7 +6816,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6825,7 +6830,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6839,7 +6844,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6853,7 +6858,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6867,7 +6872,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6881,7 +6886,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6895,7 +6900,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6909,7 +6914,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6923,7 +6928,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6937,7 +6942,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6951,7 +6956,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6965,7 +6970,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6979,7 +6984,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6993,7 +6998,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -7007,7 +7012,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -7021,7 +7026,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -7035,7 +7040,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -7049,7 +7054,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -7063,7 +7068,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -7077,7 +7082,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -7091,7 +7096,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -7105,7 +7110,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -7119,7 +7124,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -7133,7 +7138,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -7147,7 +7152,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -7161,7 +7166,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -7175,7 +7180,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -7189,7 +7194,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -7203,7 +7208,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -7217,7 +7222,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -7231,7 +7236,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -7245,7 +7250,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -7259,7 +7264,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -7273,7 +7278,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -7287,7 +7292,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -7301,7 +7306,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -7315,7 +7320,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -7329,7 +7334,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -7343,7 +7348,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -7357,7 +7362,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -7371,7 +7376,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -7385,7 +7390,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -7399,7 +7404,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -7413,7 +7418,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -7427,7 +7432,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -7441,7 +7446,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -7455,7 +7460,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7469,7 +7474,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7483,7 +7488,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7497,7 +7502,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7511,7 +7516,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7525,7 +7530,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7539,7 +7544,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7553,7 +7558,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7567,7 +7572,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7581,7 +7586,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7595,7 +7600,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7609,7 +7614,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7623,7 +7628,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7637,7 +7642,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7651,7 +7656,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>

--- a/fuentes/contenidos/grado10/guion04/EscaletaCN_10_04F.xlsx
+++ b/fuentes/contenidos/grado10/guion04/EscaletaCN_10_04F.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado10\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14475"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -1081,8 +1076,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1306,16 +1303,34 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,26 +1372,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="151">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1451,6 +1448,7 @@
     <cellStyle name="Hipervínculo" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1525,6 +1523,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1541,7 +1540,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja2"/>
@@ -1844,126 +1843,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="80.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="105.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="40.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="105.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="40.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="49.28515625" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:21" s="29" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
+    <row r="2" spans="1:21" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="30" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="40"/>
+    </row>
+    <row r="3" spans="1:21" ht="16" thickTop="1">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +2021,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
@@ -2374,7 +2373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
@@ -2433,7 +2432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -2551,7 +2550,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2846,7 +2845,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="18" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="18" t="s">
         <v>17</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -3377,7 +3376,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="18" t="s">
         <v>17</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="18" t="s">
         <v>17</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="18" t="s">
         <v>17</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="18" t="s">
         <v>17</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="18" t="s">
         <v>17</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="18" t="s">
         <v>17</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="18" t="s">
         <v>17</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="18" t="s">
         <v>17</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="18" t="s">
         <v>17</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="18" t="s">
         <v>17</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="18" t="s">
         <v>17</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="18" t="s">
         <v>17</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="18" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="18" t="s">
         <v>17</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="18" t="s">
         <v>17</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="18" t="s">
         <v>17</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="18" t="s">
         <v>17</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="18" t="s">
         <v>17</v>
       </c>
@@ -4478,7 +4477,7 @@
       <c r="T45" s="12"/>
       <c r="U45" s="10"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="18" t="s">
         <v>17</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="18" t="s">
         <v>17</v>
       </c>
@@ -4592,7 +4591,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="18" t="s">
         <v>17</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="18" t="s">
         <v>17</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="18" t="s">
         <v>17</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="18" t="s">
         <v>17</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="18" t="s">
         <v>17</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4902,7 +4901,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="10"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4925,7 +4924,7 @@
       <c r="T54" s="12"/>
       <c r="U54" s="10"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4948,7 +4947,7 @@
       <c r="T55" s="12"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4971,7 +4970,7 @@
       <c r="T56" s="12"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4994,7 +4993,7 @@
       <c r="T57" s="12"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -5017,7 +5016,7 @@
       <c r="T58" s="12"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -5040,7 +5039,7 @@
       <c r="T59" s="12"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -5063,7 +5062,7 @@
       <c r="T60" s="12"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5086,7 +5085,7 @@
       <c r="T61" s="12"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5109,7 +5108,7 @@
       <c r="T62" s="12"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5132,7 +5131,7 @@
       <c r="T63" s="12"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5155,7 +5154,7 @@
       <c r="T64" s="12"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -5178,7 +5177,7 @@
       <c r="T65" s="12"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -5201,7 +5200,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="4"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -5224,7 +5223,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="4"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -5247,7 +5246,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -5270,7 +5269,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -5293,378 +5292,372 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" hidden="1"/>
+    <row r="73" spans="1:21" hidden="1"/>
+    <row r="74" spans="1:21" hidden="1"/>
+    <row r="75" spans="1:21" hidden="1"/>
+    <row r="76" spans="1:21" hidden="1"/>
+    <row r="77" spans="1:21" hidden="1"/>
+    <row r="78" spans="1:21" hidden="1"/>
+    <row r="79" spans="1:21" hidden="1"/>
+    <row r="80" spans="1:21" hidden="1"/>
+    <row r="81" spans="1:1" hidden="1"/>
+    <row r="82" spans="1:1" hidden="1"/>
+    <row r="83" spans="1:1" hidden="1"/>
+    <row r="84" spans="1:1" hidden="1"/>
+    <row r="85" spans="1:1" hidden="1">
       <c r="A85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" hidden="1">
       <c r="A86" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" hidden="1">
       <c r="A87" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1">
       <c r="A88" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1">
       <c r="A89" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1">
       <c r="A90" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1">
       <c r="A91" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1">
       <c r="A93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1">
       <c r="A94" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1">
       <c r="A95" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1">
       <c r="A96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1">
       <c r="A97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1">
       <c r="A98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1">
       <c r="A99" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1">
       <c r="A100" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1">
       <c r="A101" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1">
       <c r="A102" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1">
       <c r="A103" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1">
       <c r="A104" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1">
       <c r="A105" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1">
       <c r="A106" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1">
       <c r="A107" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1">
       <c r="A108" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1">
       <c r="A109" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1">
       <c r="A110" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1">
       <c r="A111" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1">
       <c r="A112" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1">
       <c r="A113" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1">
       <c r="A114" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1">
       <c r="A115" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1">
       <c r="A116" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1">
       <c r="A117" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1">
       <c r="A118" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1">
       <c r="A119" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1">
       <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1">
       <c r="A121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1"/>
+    <row r="123" spans="1:1" hidden="1"/>
+    <row r="124" spans="1:1" hidden="1"/>
+    <row r="125" spans="1:1" hidden="1"/>
+    <row r="126" spans="1:1" hidden="1"/>
+    <row r="127" spans="1:1" hidden="1"/>
+    <row r="128" spans="1:1" hidden="1"/>
+    <row r="129" hidden="1"/>
+    <row r="130" hidden="1"/>
+    <row r="131" hidden="1"/>
+    <row r="132" hidden="1"/>
+    <row r="133" hidden="1"/>
+    <row r="134" hidden="1"/>
+    <row r="135" hidden="1"/>
+    <row r="136" hidden="1"/>
+    <row r="137" hidden="1"/>
+    <row r="138" hidden="1"/>
+    <row r="139" hidden="1"/>
+    <row r="140" hidden="1"/>
+    <row r="141" hidden="1"/>
+    <row r="142" hidden="1"/>
+    <row r="143" hidden="1"/>
+    <row r="144" hidden="1"/>
+    <row r="145" hidden="1"/>
+    <row r="146" hidden="1"/>
+    <row r="147" hidden="1"/>
+    <row r="148" hidden="1"/>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1"/>
+    <row r="151" hidden="1"/>
+    <row r="152" hidden="1"/>
+    <row r="153" hidden="1"/>
+    <row r="154" hidden="1"/>
+    <row r="155" hidden="1"/>
+    <row r="156" hidden="1"/>
+    <row r="157" hidden="1"/>
+    <row r="158" hidden="1"/>
+    <row r="159" hidden="1"/>
+    <row r="160" hidden="1"/>
+    <row r="161" hidden="1"/>
+    <row r="162" hidden="1"/>
+    <row r="163" hidden="1"/>
+    <row r="164" hidden="1"/>
+    <row r="165" hidden="1"/>
+    <row r="166" hidden="1"/>
+    <row r="167" hidden="1"/>
+    <row r="168" hidden="1"/>
+    <row r="169" hidden="1"/>
+    <row r="170" hidden="1"/>
+    <row r="171" hidden="1"/>
+    <row r="172" hidden="1"/>
+    <row r="173" hidden="1"/>
+    <row r="174" hidden="1"/>
+    <row r="175" hidden="1"/>
+    <row r="176" hidden="1"/>
+    <row r="177" hidden="1"/>
+    <row r="178" hidden="1"/>
+    <row r="179" hidden="1"/>
+    <row r="180" hidden="1"/>
+    <row r="181" hidden="1"/>
+    <row r="182" hidden="1"/>
+    <row r="183" hidden="1"/>
+    <row r="184" hidden="1"/>
+    <row r="185" hidden="1"/>
+    <row r="186" hidden="1"/>
+    <row r="187" hidden="1"/>
+    <row r="188" hidden="1"/>
+    <row r="189" hidden="1"/>
+    <row r="190" hidden="1"/>
+    <row r="191" hidden="1"/>
+    <row r="192" hidden="1"/>
+    <row r="193" hidden="1"/>
+    <row r="194" hidden="1"/>
+    <row r="195" hidden="1"/>
+    <row r="196" hidden="1"/>
+    <row r="197" hidden="1"/>
+    <row r="198" hidden="1"/>
+    <row r="199" hidden="1"/>
+    <row r="200" hidden="1"/>
+    <row r="201" hidden="1"/>
+    <row r="202" hidden="1"/>
+    <row r="203" hidden="1"/>
+    <row r="204" hidden="1"/>
+    <row r="205" hidden="1"/>
+    <row r="206" hidden="1"/>
+    <row r="207" hidden="1"/>
+    <row r="208" hidden="1"/>
+    <row r="209" hidden="1"/>
+    <row r="210" hidden="1"/>
+    <row r="211" hidden="1"/>
+    <row r="212" hidden="1"/>
+    <row r="213" hidden="1"/>
+    <row r="214" hidden="1"/>
+    <row r="215" hidden="1"/>
+    <row r="216" hidden="1"/>
+    <row r="217" hidden="1"/>
+    <row r="218" hidden="1"/>
+    <row r="219" hidden="1"/>
+    <row r="220" hidden="1"/>
+    <row r="221" hidden="1"/>
+    <row r="222" hidden="1"/>
+    <row r="223" hidden="1"/>
+    <row r="224" hidden="1"/>
+    <row r="225" hidden="1"/>
+    <row r="226" hidden="1"/>
+    <row r="227" hidden="1"/>
+    <row r="228" hidden="1"/>
+    <row r="229" hidden="1"/>
+    <row r="230" hidden="1"/>
+    <row r="231" hidden="1"/>
+    <row r="232" hidden="1"/>
+    <row r="233" hidden="1"/>
+    <row r="234" hidden="1"/>
+    <row r="235" hidden="1"/>
+    <row r="236" hidden="1"/>
+    <row r="237" hidden="1"/>
+    <row r="238" hidden="1"/>
+    <row r="239" hidden="1"/>
+    <row r="240" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
+    <row r="284" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:U52">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5679,6 +5672,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5744,27 +5743,27 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.28515625" style="2"/>
+    <col min="13" max="13" width="11.33203125" style="2"/>
+    <col min="14" max="14" width="24.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="69.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -5805,7 +5804,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -5824,7 +5823,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -5843,7 +5842,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5859,7 +5858,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5876,7 +5875,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5893,7 +5892,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5908,7 +5907,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5923,7 +5922,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5938,7 +5937,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5953,7 +5952,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5968,7 +5967,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5983,7 +5982,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5998,7 +5997,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -6013,7 +6012,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -6028,7 +6027,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15">
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
@@ -6042,7 +6041,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15">
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
@@ -6056,7 +6055,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15">
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
@@ -6070,7 +6069,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15">
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
@@ -6084,7 +6083,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6099,7 +6098,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -6114,7 +6113,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -6129,7 +6128,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6144,7 +6143,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -6159,7 +6158,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6174,7 +6173,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6189,7 +6188,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6204,7 +6203,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6219,7 +6218,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6234,7 +6233,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -6249,7 +6248,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6264,7 +6263,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6279,7 +6278,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6294,7 +6293,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6309,7 +6308,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6324,7 +6323,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6339,7 +6338,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -6354,7 +6353,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6369,7 +6368,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -6384,7 +6383,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6399,7 +6398,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -6414,7 +6413,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6429,7 +6428,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6444,7 +6443,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6459,7 +6458,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6474,7 +6473,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6489,7 +6488,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -6504,7 +6503,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6516,7 +6515,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6528,7 +6527,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6541,7 +6540,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -6554,7 +6553,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6567,7 +6566,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -6580,7 +6579,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -6593,7 +6592,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -6606,7 +6605,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6619,7 +6618,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6632,7 +6631,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6645,7 +6644,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6658,7 +6657,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6671,7 +6670,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6684,7 +6683,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6697,7 +6696,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6710,7 +6709,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -6723,7 +6722,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -6736,7 +6735,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -6749,7 +6748,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -6762,7 +6761,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -6775,7 +6774,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -6788,7 +6787,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6802,7 +6801,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6816,7 +6815,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6830,7 +6829,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6844,7 +6843,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6858,7 +6857,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6872,7 +6871,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6886,7 +6885,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6900,7 +6899,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6914,7 +6913,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -6928,7 +6927,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -6942,7 +6941,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -6956,7 +6955,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -6970,7 +6969,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -6984,7 +6983,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -6998,7 +6997,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -7012,7 +7011,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -7026,7 +7025,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -7040,7 +7039,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -7054,7 +7053,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -7068,7 +7067,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -7082,7 +7081,7 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -7096,7 +7095,7 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -7110,7 +7109,7 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -7124,7 +7123,7 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -7138,7 +7137,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -7152,7 +7151,7 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -7166,7 +7165,7 @@
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -7180,7 +7179,7 @@
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -7194,7 +7193,7 @@
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -7208,7 +7207,7 @@
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -7222,7 +7221,7 @@
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -7236,7 +7235,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -7250,7 +7249,7 @@
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -7264,7 +7263,7 @@
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -7278,7 +7277,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -7292,7 +7291,7 @@
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -7306,7 +7305,7 @@
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -7320,7 +7319,7 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -7334,7 +7333,7 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -7348,7 +7347,7 @@
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -7362,7 +7361,7 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -7376,7 +7375,7 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -7390,7 +7389,7 @@
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -7404,7 +7403,7 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -7418,7 +7417,7 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -7432,7 +7431,7 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -7446,7 +7445,7 @@
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -7460,7 +7459,7 @@
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -7474,7 +7473,7 @@
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -7488,7 +7487,7 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -7502,7 +7501,7 @@
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -7516,7 +7515,7 @@
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -7530,7 +7529,7 @@
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -7544,7 +7543,7 @@
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -7558,7 +7557,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -7572,7 +7571,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7586,7 +7585,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7600,7 +7599,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7614,7 +7613,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7628,7 +7627,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7642,7 +7641,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7656,7 +7655,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
